--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -1,25 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kissg\Documents\GitHub\CocktailsDB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D8F757-B316-4332-8663-F2EAA9283151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+  <si>
+    <t>Roadmap</t>
+  </si>
+  <si>
+    <t>Kezdő hét:</t>
+  </si>
+  <si>
+    <t>Tervezés</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>1PI</t>
+  </si>
+  <si>
+    <t>2PI</t>
+  </si>
+  <si>
+    <t>3PI</t>
+  </si>
+  <si>
+    <t>4PI</t>
+  </si>
+  <si>
+    <t>5PI</t>
+  </si>
+  <si>
+    <t>Feladat:</t>
+  </si>
+  <si>
+    <t>Design centerben endpointok definiálása</t>
+  </si>
+  <si>
+    <t>Feladat kitalálása</t>
+  </si>
+  <si>
+    <t>Github repo létrehozása</t>
+  </si>
+  <si>
+    <t>Backlog readme formájában</t>
+  </si>
+  <si>
+    <t>Github repo része</t>
+  </si>
+  <si>
+    <t>Endpointok:</t>
+  </si>
+  <si>
+    <t>Anypoint studióban létrhozni API-t</t>
+  </si>
+  <si>
+    <t>Új google acc létrehozása</t>
+  </si>
+  <si>
+    <t>Új anypoint acc</t>
+  </si>
+  <si>
+    <t>user: kissgagco pw: 123456Az</t>
+  </si>
+  <si>
+    <t>Egy Api létrehozása A CocktailDB API alapján adott adatok lekérésére és listázására egy adatázisból</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Covktail név szerint</t>
+  </si>
+  <si>
+    <t>Alapanyag szerint</t>
+  </si>
+  <si>
+    <t>Lookup</t>
+  </si>
+  <si>
+    <t>Random cocktail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alapanyag </t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Kategória</t>
+  </si>
+  <si>
+    <t>Alkoholos-e</t>
+  </si>
+  <si>
+    <t>Pohárméret</t>
+  </si>
+  <si>
+    <t>Több alapanyag</t>
+  </si>
+  <si>
+    <t>Listázás</t>
+  </si>
+  <si>
+    <t>Alkoholtartalom</t>
+  </si>
+  <si>
+    <t>Leghíresebb cocktailok</t>
+  </si>
+  <si>
+    <t>Legújjabb cocktailok</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +162,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +196,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +506,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <f>G2</f>
+        <v>45005</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <f>B6+7</f>
+        <v>45012</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <f>D6+7</f>
+        <v>45019</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:M6" si="0">F6+7</f>
+        <v>45026</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>45033</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>45040</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>45054</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>45061</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kissg\Documents\GitHub\CocktailsDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D8F757-B316-4332-8663-F2EAA9283151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5356C0EE-6CA8-4288-B2AC-B2AE4A6FE2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Roadmap</t>
   </si>
@@ -119,9 +119,6 @@
     <t xml:space="preserve">Alapanyag </t>
   </si>
   <si>
-    <t>Filter</t>
-  </si>
-  <si>
     <t>Kategória</t>
   </si>
   <si>
@@ -134,16 +131,22 @@
     <t>Több alapanyag</t>
   </si>
   <si>
-    <t>Listázás</t>
-  </si>
-  <si>
-    <t>Alkoholtartalom</t>
-  </si>
-  <si>
     <t>Leghíresebb cocktailok</t>
   </si>
   <si>
     <t>Legújjabb cocktailok</t>
+  </si>
+  <si>
+    <t>https://github.com/kissg1/CocktailsDB</t>
+  </si>
+  <si>
+    <t>Frontend tervezés</t>
+  </si>
+  <si>
+    <t>Frontend megcsinal</t>
+  </si>
+  <si>
+    <t>Filter/istázás</t>
   </si>
 </sst>
 </file>
@@ -151,12 +154,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,23 +223,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,146 +521,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <v>45005</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <f>G2</f>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <f>F2</f>
         <v>45005</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <f>B6+7</f>
         <v>45012</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="4">
         <f>D6+7</f>
         <v>45019</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6:M6" si="0">F6+7</f>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:L6" si="0">E6+7</f>
         <v>45026</v>
       </c>
-      <c r="H6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>45033</v>
       </c>
-      <c r="I6" s="5">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>45040</v>
       </c>
-      <c r="J6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>45047</v>
       </c>
-      <c r="K6" s="5">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>45054</v>
       </c>
-      <c r="L6" s="5">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>45061</v>
       </c>
-      <c r="M6" s="5">
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>45068</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -659,8 +669,14 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -668,15 +684,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -684,20 +703,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -705,12 +724,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -718,76 +737,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{220E695E-8160-4F02-81D3-EFF16F88991B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kissg\Documents\GitHub\CocktailsDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5356C0EE-6CA8-4288-B2AC-B2AE4A6FE2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB296F-EFE5-46C9-BC49-764B5F2CED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Roadmap</t>
   </si>
@@ -56,12 +56,6 @@
     <t>2PI</t>
   </si>
   <si>
-    <t>3PI</t>
-  </si>
-  <si>
-    <t>4PI</t>
-  </si>
-  <si>
     <t>5PI</t>
   </si>
   <si>
@@ -101,18 +95,12 @@
     <t>Egy Api létrehozása A CocktailDB API alapján adott adatok lekérésére és listázására egy adatázisból</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
     <t>Covktail név szerint</t>
   </si>
   <si>
     <t>Alapanyag szerint</t>
   </si>
   <si>
-    <t>Lookup</t>
-  </si>
-  <si>
     <t>Random cocktail</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>Pohárméret</t>
   </si>
   <si>
-    <t>Több alapanyag</t>
-  </si>
-  <si>
     <t>Leghíresebb cocktailok</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
   </si>
   <si>
     <t>Frontend megcsinal</t>
-  </si>
-  <si>
-    <t>Filter/istázás</t>
   </si>
 </sst>
 </file>
@@ -199,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -222,12 +204,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -237,7 +256,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L22"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,27 +589,23 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -658,130 +685,112 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
+  <mergeCells count="3">
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{220E695E-8160-4F02-81D3-EFF16F88991B}"/>

--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kissg\Documents\GitHub\CocktailsDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB296F-EFE5-46C9-BC49-764B5F2CED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E6CC0-FBD4-4617-9C7C-BF982B740C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Roadmap</t>
   </si>
@@ -56,9 +56,6 @@
     <t>2PI</t>
   </si>
   <si>
-    <t>5PI</t>
-  </si>
-  <si>
     <t>Feladat:</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Github repo része</t>
   </si>
   <si>
-    <t>Endpointok:</t>
-  </si>
-  <si>
     <t>Anypoint studióban létrhozni API-t</t>
   </si>
   <si>
@@ -129,6 +123,45 @@
   </si>
   <si>
     <t>Frontend megcsinal</t>
+  </si>
+  <si>
+    <t>Features:</t>
+  </si>
+  <si>
+    <t>endpoitok elkészítése:</t>
+  </si>
+  <si>
+    <t>/search</t>
+  </si>
+  <si>
+    <t>/filter</t>
+  </si>
+  <si>
+    <t>/lookup</t>
+  </si>
+  <si>
+    <t>/random</t>
+  </si>
+  <si>
+    <t>/randomselection</t>
+  </si>
+  <si>
+    <t>/popular</t>
+  </si>
+  <si>
+    <t>/latest</t>
+  </si>
+  <si>
+    <t>eddigi munka ellenörzése</t>
+  </si>
+  <si>
+    <t>buggfix</t>
+  </si>
+  <si>
+    <t>3PI</t>
+  </si>
+  <si>
+    <t>/list</t>
   </si>
 </sst>
 </file>
@@ -555,7 +588,7 @@
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,9 +597,9 @@
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
@@ -603,7 +636,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
       <c r="K4" s="8" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L4" s="8"/>
     </row>
@@ -685,105 +718,143 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="E7" t="s">
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
